--- a/design_Doc/Parameter table/background_Library.xlsx
+++ b/design_Doc/Parameter table/background_Library.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614474BE-962A-42F7-A747-01A81810940D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="background_Library" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,27 +25,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PNG文件名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_Background</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>backgroundsan_Minithreshold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>backgroundpng_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Spine动画名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_Bg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg_San_Minithreshold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg_SpineAnime_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beijing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beijing2</t>
+  </si>
+  <si>
+    <t>beijing3</t>
+  </si>
+  <si>
+    <t>beijing4</t>
+  </si>
+  <si>
+    <t>beijing5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,11 +110,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -141,7 +164,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -173,9 +196,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,6 +248,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -382,21 +441,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,7 +464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -416,6 +473,61 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>301</v>
+      </c>
+      <c r="B3">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>302</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>303</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>304</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>305</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -423,32 +535,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>